--- a/environhub/orissamining.xlsx
+++ b/environhub/orissamining.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9875" activeTab="4"/>
+    <workbookView windowWidth="22943" windowHeight="9467" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>Baphlimali hill, part of the Eastern Ghats mountain range is situated in Kashipur block under Rayagada district of Odisha. Baphlimali hill is rich in bauxite – the raw material for the aluminium industry. This has attracted many national and multinational companies such as Utkal Alumina International Limited (UAIL), TATA, Alcan Aluminium and Norsk Hydro. Under the threat of losing their land, livelihood and their deity, the local communities have been vehemently opposing the proposed mining project in these areas. To suppress their movement, the Government of Odisha (GoO) has taken a series of repressive measures, including lathi-charge, teargas, gunfire and random arrest of local people involved in the movement. One such instance is the “Kashipur massacre”, where three innocent and unarmed tribal persons were shot dead by the police.</t>
   </si>
@@ -39,10 +39,19 @@
     <t>UAIL had obtained environmental clearance from the Ministry of Environment and Forest (MoEF) for alumina production and captive power generation</t>
   </si>
   <si>
+    <t>19/6/1995</t>
+  </si>
+  <si>
     <t>Panchayati Raj Extension to the Scheduled Areas Act (PESA) which protect the tribal community’s right to land and other natural resources was overridden illegally</t>
   </si>
   <si>
+    <t>24/11/1996</t>
+  </si>
+  <si>
     <t>A showcase notice to show the progress of work was issued by Odisha Pollution Control Board (OPCB) to  UAIL.</t>
+  </si>
+  <si>
+    <t>23/7/2005</t>
   </si>
   <si>
     <t>court judgement</t>
@@ -209,12 +218,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-m"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -273,11 +282,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,6 +298,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -296,11 +313,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,17 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,55 +372,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,7 +413,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,7 +447,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,19 +585,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,127 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,24 +632,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -655,6 +646,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +697,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -709,32 +724,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,130 +753,130 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -880,8 +889,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1251,7 +1260,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1262,7 +1271,7 @@
     <col min="3" max="3" width="22.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1280,8 +1289,8 @@
       <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14">
-        <v>34869</v>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="18.6" spans="1:3">
@@ -1289,32 +1298,32 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14">
-        <v>35393</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14">
-        <v>38556</v>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="37.2" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="14">
-        <v>41460</v>
+        <v>41401</v>
       </c>
     </row>
   </sheetData>
@@ -1341,35 +1350,35 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="198" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1402,10 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:2">
@@ -2888,7 +2897,7 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
@@ -2899,15 +2908,15 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="14.4" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -2915,7 +2924,7 @@
     </row>
     <row r="3" ht="14.4" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>96</v>
@@ -2923,7 +2932,7 @@
     </row>
     <row r="4" ht="14.4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>81</v>
@@ -2931,7 +2940,7 @@
     </row>
     <row r="5" ht="14.4" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>68</v>
@@ -2939,7 +2948,7 @@
     </row>
     <row r="6" ht="14.4" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>60</v>
@@ -2947,7 +2956,7 @@
     </row>
     <row r="7" ht="14.4" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>55</v>
@@ -2955,7 +2964,7 @@
     </row>
     <row r="8" ht="14.4" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>54</v>
@@ -2963,7 +2972,7 @@
     </row>
     <row r="9" ht="14.4" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2">
         <v>48</v>
@@ -2971,7 +2980,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <v>47</v>
@@ -2979,7 +2988,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>47</v>
@@ -2987,7 +2996,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>46</v>
@@ -2995,7 +3004,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>44</v>
@@ -3003,7 +3012,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>41</v>
@@ -3011,7 +3020,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
         <v>40</v>
@@ -3019,7 +3028,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2">
         <v>39</v>
@@ -3027,7 +3036,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2">
         <v>39</v>
@@ -3035,7 +3044,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2">
         <v>39</v>
@@ -3043,7 +3052,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
         <v>38</v>
@@ -3051,7 +3060,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
         <v>34</v>
@@ -3059,7 +3068,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2">
         <v>34</v>
@@ -3067,7 +3076,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2">
         <v>33</v>
@@ -3075,7 +3084,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2">
         <v>33</v>
@@ -3083,7 +3092,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
         <v>33</v>
@@ -3091,7 +3100,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2">
         <v>31</v>
@@ -3099,7 +3108,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2">
         <v>30</v>
@@ -3107,7 +3116,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
         <v>28</v>
@@ -3115,7 +3124,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
         <v>26</v>
@@ -3123,7 +3132,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2">
         <v>25</v>
@@ -3131,7 +3140,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2">
         <v>25</v>
@@ -3139,7 +3148,7 @@
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2">
         <v>25</v>
@@ -3147,7 +3156,7 @@
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2">
         <v>24</v>
@@ -3155,7 +3164,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2">
         <v>23</v>
@@ -3163,7 +3172,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2">
         <v>22</v>
@@ -3171,7 +3180,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2">
         <v>22</v>
@@ -3179,7 +3188,7 @@
     </row>
     <row r="36" customHeight="1" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2">
         <v>19</v>
@@ -3187,7 +3196,7 @@
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2"/>
     </row>
@@ -3216,12 +3225,12 @@
   <sheetData>
     <row r="1" ht="145.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="132" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
